--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gdf7-Bmpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gdf7-Bmpr2.xlsx
@@ -540,10 +540,10 @@
         <v>0.592741</v>
       </c>
       <c r="I2">
-        <v>0.6387611885934001</v>
+        <v>0.5544143368907429</v>
       </c>
       <c r="J2">
-        <v>0.6387611885934001</v>
+        <v>0.5544143368907429</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>40.70766766666667</v>
+        <v>29.52617166666667</v>
       </c>
       <c r="N2">
-        <v>122.123003</v>
+        <v>88.57851500000001</v>
       </c>
       <c r="O2">
-        <v>0.3776398983502007</v>
+        <v>0.3218391660320701</v>
       </c>
       <c r="P2">
-        <v>0.3776398983502007</v>
+        <v>0.3218391660320701</v>
       </c>
       <c r="Q2">
-        <v>8.043034546802556</v>
+        <v>5.833790839957222</v>
       </c>
       <c r="R2">
-        <v>72.38731092122299</v>
+        <v>52.504117559615</v>
       </c>
       <c r="S2">
-        <v>0.241221710330465</v>
+        <v>0.1784322478211398</v>
       </c>
       <c r="T2">
-        <v>0.241221710330465</v>
+        <v>0.1784322478211398</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>0.592741</v>
       </c>
       <c r="I3">
-        <v>0.6387611885934001</v>
+        <v>0.5544143368907429</v>
       </c>
       <c r="J3">
-        <v>0.6387611885934001</v>
+        <v>0.5544143368907429</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,10 +620,10 @@
         <v>119.145069</v>
       </c>
       <c r="O3">
-        <v>0.3684312589831062</v>
+        <v>0.4328989896002822</v>
       </c>
       <c r="P3">
-        <v>0.3684312589831062</v>
+        <v>0.4328989896002822</v>
       </c>
       <c r="Q3">
         <v>7.846907482681</v>
@@ -632,10 +632,10 @@
         <v>70.622167344129</v>
       </c>
       <c r="S3">
-        <v>0.2353395889030117</v>
+        <v>0.2400054062599131</v>
       </c>
       <c r="T3">
-        <v>0.2353395889030117</v>
+        <v>0.2400054062599131</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>0.592741</v>
       </c>
       <c r="I4">
-        <v>0.6387611885934001</v>
+        <v>0.5544143368907429</v>
       </c>
       <c r="J4">
-        <v>0.6387611885934001</v>
+        <v>0.5544143368907429</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>27.37224266666666</v>
+        <v>22.50081433333333</v>
       </c>
       <c r="N4">
-        <v>82.11672799999999</v>
+        <v>67.502443</v>
       </c>
       <c r="O4">
-        <v>0.253928842666693</v>
+        <v>0.2452618443676477</v>
       </c>
       <c r="P4">
-        <v>0.253928842666693</v>
+        <v>0.2452618443676476</v>
       </c>
       <c r="Q4">
-        <v>5.408216830160889</v>
+        <v>4.445718396251444</v>
       </c>
       <c r="R4">
-        <v>48.67395147144799</v>
+        <v>40.011465566263</v>
       </c>
       <c r="S4">
-        <v>0.1621998893599233</v>
+        <v>0.13597668280969</v>
       </c>
       <c r="T4">
-        <v>0.1621998893599233</v>
+        <v>0.13597668280969</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.1117376666666667</v>
+        <v>0.1587963333333333</v>
       </c>
       <c r="H5">
-        <v>0.335213</v>
+        <v>0.476389</v>
       </c>
       <c r="I5">
-        <v>0.3612388114066</v>
+        <v>0.4455856631092571</v>
       </c>
       <c r="J5">
-        <v>0.3612388114066</v>
+        <v>0.4455856631092571</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>40.70766766666667</v>
+        <v>29.52617166666667</v>
       </c>
       <c r="N5">
-        <v>122.123003</v>
+        <v>88.57851500000001</v>
       </c>
       <c r="O5">
-        <v>0.3776398983502007</v>
+        <v>0.3218391660320701</v>
       </c>
       <c r="P5">
-        <v>0.3776398983502007</v>
+        <v>0.3218391660320701</v>
       </c>
       <c r="Q5">
-        <v>4.548579800515445</v>
+        <v>4.688647798037223</v>
       </c>
       <c r="R5">
-        <v>40.937218204639</v>
+        <v>42.197830182335</v>
       </c>
       <c r="S5">
-        <v>0.1364181880197357</v>
+        <v>0.1434069182109302</v>
       </c>
       <c r="T5">
-        <v>0.1364181880197357</v>
+        <v>0.1434069182109302</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.1117376666666667</v>
+        <v>0.1587963333333333</v>
       </c>
       <c r="H6">
-        <v>0.335213</v>
+        <v>0.476389</v>
       </c>
       <c r="I6">
-        <v>0.3612388114066</v>
+        <v>0.4455856631092571</v>
       </c>
       <c r="J6">
-        <v>0.3612388114066</v>
+        <v>0.4455856631092571</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>119.145069</v>
       </c>
       <c r="O6">
-        <v>0.3684312589831062</v>
+        <v>0.4328989896002822</v>
       </c>
       <c r="P6">
-        <v>0.3684312589831062</v>
+        <v>0.4328989896002822</v>
       </c>
       <c r="Q6">
-        <v>4.437664001633001</v>
+        <v>6.306600030649001</v>
       </c>
       <c r="R6">
-        <v>39.938976014697</v>
+        <v>56.759400275841</v>
       </c>
       <c r="S6">
-        <v>0.1330916700800945</v>
+        <v>0.1928935833403691</v>
       </c>
       <c r="T6">
-        <v>0.1330916700800945</v>
+        <v>0.1928935833403692</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.1117376666666667</v>
+        <v>0.1587963333333333</v>
       </c>
       <c r="H7">
-        <v>0.335213</v>
+        <v>0.476389</v>
       </c>
       <c r="I7">
-        <v>0.3612388114066</v>
+        <v>0.4455856631092571</v>
       </c>
       <c r="J7">
-        <v>0.3612388114066</v>
+        <v>0.4455856631092571</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>27.37224266666666</v>
+        <v>22.50081433333333</v>
       </c>
       <c r="N7">
-        <v>82.11672799999999</v>
+        <v>67.502443</v>
       </c>
       <c r="O7">
-        <v>0.253928842666693</v>
+        <v>0.2452618443676477</v>
       </c>
       <c r="P7">
-        <v>0.253928842666693</v>
+        <v>0.2452618443676476</v>
       </c>
       <c r="Q7">
-        <v>3.058510527007111</v>
+        <v>3.573046813147445</v>
       </c>
       <c r="R7">
-        <v>27.526594743064</v>
+        <v>32.157421318327</v>
       </c>
       <c r="S7">
-        <v>0.09172895330676972</v>
+        <v>0.1092851615579577</v>
       </c>
       <c r="T7">
-        <v>0.09172895330676972</v>
+        <v>0.1092851615579577</v>
       </c>
     </row>
   </sheetData>
